--- a/spliced/walkingToRunning/2023-03-24_10-03-17/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-03-17/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-11.13384056091309</v>
+        <v>-12.57026290893555</v>
       </c>
       <c r="B2" t="n">
-        <v>-14.18883228302002</v>
+        <v>-8.004177093505859</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.074286460876465</v>
+        <v>-9.469242095947266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-9.418439865112305</v>
+        <v>-11.83102798461914</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.676417350769045</v>
+        <v>-4.641905784606934</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.096508026123047</v>
+        <v>-9.06204319000244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.99904441833496</v>
+        <v>5.961018562316895</v>
       </c>
       <c r="B4" t="n">
-        <v>10.46211528778076</v>
+        <v>-11.27237701416016</v>
       </c>
       <c r="C4" t="n">
-        <v>5.739192962646484</v>
+        <v>6.515813827514648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.18538665771484</v>
+        <v>5.790210247039795</v>
       </c>
       <c r="B5" t="n">
-        <v>4.166534900665283</v>
+        <v>-16.61598014831543</v>
       </c>
       <c r="C5" t="n">
-        <v>8.056502342224121</v>
+        <v>5.962498664855957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-48.95797729492188</v>
+        <v>-44.78383636474609</v>
       </c>
       <c r="B6" t="n">
-        <v>21.78786277770996</v>
+        <v>-8.077349662780762</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.663942813873291</v>
+        <v>-27.36338424682617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-51.63021087646485</v>
+        <v>-42.66062545776367</v>
       </c>
       <c r="B7" t="n">
-        <v>21.43667411804199</v>
+        <v>-5.792407035827637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2754793167114258</v>
+        <v>-30.21708297729492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.684616088867188</v>
+        <v>-9.564473152160645</v>
       </c>
       <c r="B8" t="n">
-        <v>-53.19293975830078</v>
+        <v>-21.24031639099121</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.34708404541016</v>
+        <v>-0.3582277297973633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.157036304473877</v>
+        <v>-10.97329330444336</v>
       </c>
       <c r="B9" t="n">
-        <v>-51.09187316894531</v>
+        <v>-18.38039779663086</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.45985221862793</v>
+        <v>0.1557941436767578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.718238353729248</v>
+        <v>9.481355667114258</v>
       </c>
       <c r="B10" t="n">
-        <v>-36.44342803955078</v>
+        <v>-9.28108024597168</v>
       </c>
       <c r="C10" t="n">
-        <v>49.82834243774414</v>
+        <v>9.836421966552734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.645053386688232</v>
+        <v>10.69957828521728</v>
       </c>
       <c r="B11" t="n">
-        <v>-43.68149566650391</v>
+        <v>-16.89757537841797</v>
       </c>
       <c r="C11" t="n">
-        <v>53.12262344360352</v>
+        <v>15.06509208679199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25.72290420532227</v>
+        <v>-12.81566715240478</v>
       </c>
       <c r="B12" t="n">
-        <v>4.552091598510742</v>
+        <v>-8.839512825012207</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.990055084228516</v>
+        <v>-14.14643669128418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26.21332740783692</v>
+        <v>-8.493080139160156</v>
       </c>
       <c r="B13" t="n">
-        <v>5.633610725402832</v>
+        <v>-3.757828950881958</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.995002746582031</v>
+        <v>-17.9176139831543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.608940124511719</v>
+        <v>-10.02292919158936</v>
       </c>
       <c r="B14" t="n">
-        <v>-37.16049957275391</v>
+        <v>-2.351483345031738</v>
       </c>
       <c r="C14" t="n">
-        <v>-19.42632293701172</v>
+        <v>5.807761192321777</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.403503179550171</v>
+        <v>-12.75368976593018</v>
       </c>
       <c r="B15" t="n">
-        <v>-35.6165771484375</v>
+        <v>-6.235836982727051</v>
       </c>
       <c r="C15" t="n">
-        <v>-19.43898963928223</v>
+        <v>6.349725723266602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.55340099334717</v>
+        <v>-79.57471466064453</v>
       </c>
       <c r="B16" t="n">
-        <v>-23.55029106140137</v>
+        <v>-37.79908752441406</v>
       </c>
       <c r="C16" t="n">
-        <v>23.63160514831543</v>
+        <v>-28.62195587158203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13.95744132995606</v>
+        <v>-83.42860412597656</v>
       </c>
       <c r="B17" t="n">
-        <v>-31.91344451904297</v>
+        <v>-34.91292572021484</v>
       </c>
       <c r="C17" t="n">
-        <v>27.42757415771484</v>
+        <v>-30.07511520385743</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>28.30527877807617</v>
+        <v>-3.41340184211731</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.764571666717529</v>
+        <v>-14.34111213684082</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.558635234832764</v>
+        <v>-5.178817749023438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30.55707168579102</v>
+        <v>-5.549047946929932</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.7412428855896</v>
+        <v>-10.40872192382812</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.06655740737915</v>
+        <v>-4.603366851806641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.90102863311768</v>
+        <v>13.1239423751831</v>
       </c>
       <c r="B20" t="n">
-        <v>-10.42354011535644</v>
+        <v>-7.421818733215332</v>
       </c>
       <c r="C20" t="n">
-        <v>27.34511184692383</v>
+        <v>9.609323501586914</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.64404201507568</v>
+        <v>13.5955753326416</v>
       </c>
       <c r="B21" t="n">
-        <v>-11.09142875671387</v>
+        <v>-13.69983100891113</v>
       </c>
       <c r="C21" t="n">
-        <v>27.1166820526123</v>
+        <v>12.63335609436035</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.66697096824646</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-4.846949577331543</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-18.3593635559082</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.207674980163574</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2672674059867859</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-20.82013320922852</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.444841146469116</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0402781963348388</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.625090599060059</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.938364028930664</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-3.24791407585144</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6.832444190979004</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-71.62106323242188</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.320010900497437</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-19.81892585754395</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-75.16300201416016</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.210659265518188</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-18.6042366027832</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-11.13384056091309</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-14.18883228302002</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.074286460876465</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-9.418439865112305</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-9.676417350769045</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.096508026123047</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17.99904441833496</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10.46211528778076</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.739192962646484</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.18538665771484</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.166534900665283</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.056502342224121</v>
       </c>
     </row>
   </sheetData>
